--- a/媛媛的日程.xlsx
+++ b/媛媛的日程.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F6B1BF-FFA8-41F1-892D-F06DD1F175D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28890" windowHeight="16110"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目日程安排" sheetId="11" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="task_start" localSheetId="0">项目日程安排!$E1</definedName>
     <definedName name="今天" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -306,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1345,6 +1343,12 @@
     <xf numFmtId="180" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1363,12 +1367,6 @@
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1390,7 +1388,7 @@
     <cellStyle name="60% - 着色 4" xfId="45" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="49" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="z隐藏文本" xfId="3"/>
+    <cellStyle name="z隐藏文本" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="百分比" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="标题" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="6" builtinId="16" customBuiltin="1"/>
@@ -1411,13 +1409,13 @@
     <cellStyle name="链接单元格" xfId="24" builtinId="24" customBuiltin="1"/>
     <cellStyle name="千位分隔" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="千位分隔[0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="任务" xfId="12"/>
-    <cellStyle name="日期" xfId="10"/>
+    <cellStyle name="任务" xfId="12" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="日期" xfId="10" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="适中" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="项目开始" xfId="9"/>
-    <cellStyle name="姓名" xfId="11"/>
+    <cellStyle name="项目开始" xfId="9" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="姓名" xfId="11" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="30" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="34" builtinId="33" customBuiltin="1"/>
@@ -1519,28 +1517,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1633,22 +1609,44 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-    </tableStyle>
-    <tableStyle name="待办事项列表" pivot="0" count="9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="11"/>
+    </tableStyle>
+    <tableStyle name="待办事项列表" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2059,35 +2057,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" style="44" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.6640625" style="44" customWidth="1"/>
-    <col min="65" max="65" width="8.88671875" style="44"/>
-    <col min="66" max="68" width="7.33203125" style="44"/>
-    <col min="69" max="70" width="8.6640625" style="44"/>
-    <col min="71" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="1" width="2.81640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="44" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.6328125" style="44" customWidth="1"/>
+    <col min="65" max="65" width="8.90625" style="44"/>
+    <col min="66" max="68" width="7.36328125" style="44"/>
+    <col min="69" max="70" width="8.6328125" style="44"/>
+    <col min="71" max="16384" width="8.90625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2101,130 +2099,130 @@
       <c r="H1" s="6"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="46"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="90">
+      <c r="D3" s="87"/>
+      <c r="E3" s="92">
         <f ca="1">TODAY()</f>
-        <v>43755</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>43756</v>
+      </c>
+      <c r="F3" s="92"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="89">
         <f ca="1">I5</f>
         <v>43751</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f ca="1">P5</f>
         <v>43758</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f ca="1">W5</f>
         <v>43765</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f ca="1">AD5</f>
         <v>43772</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f ca="1">AK5</f>
         <v>43779</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f ca="1">AR5</f>
         <v>43786</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f ca="1">AY5</f>
         <v>43793</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f ca="1">BF5</f>
         <v>43800</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="I5" s="73">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43751</v>
@@ -2450,7 +2448,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2698,7 @@
         <v>六</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -2767,7 +2765,7 @@
       <c r="BK7" s="51"/>
       <c r="BL7" s="51"/>
     </row>
-    <row r="8" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
@@ -2840,26 +2838,26 @@
       <c r="BK8" s="51"/>
       <c r="BL8" s="51"/>
     </row>
-    <row r="9" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="84" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="G9" s="16">
         <v>14</v>
@@ -2925,11 +2923,11 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="84" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="54"/>
@@ -2938,11 +2936,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43780</v>
+        <v>43781</v>
       </c>
       <c r="G10" s="16">
         <v>10</v>
@@ -3008,9 +3006,9 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45"/>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="84" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="54"/>
@@ -3019,11 +3017,11 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43781</v>
+        <v>43782</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43796</v>
+        <v>43797</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3089,7 +3087,7 @@
       <c r="BK11" s="51"/>
       <c r="BL11" s="51"/>
     </row>
-    <row r="12" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="42" t="s">
         <v>10</v>
       </c>
@@ -3162,9 +3160,9 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="57"/>
@@ -3173,11 +3171,11 @@
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">E13+G13</f>
-        <v>43764</v>
+        <v>43765</v>
       </c>
       <c r="G13" s="16">
         <v>9</v>
@@ -3243,9 +3241,9 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="57"/>
@@ -3254,11 +3252,11 @@
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43765</v>
+        <v>43766</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14</f>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3324,20 +3322,20 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45"/>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="85" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="20"/>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E19" ca="1" si="9">F14+1</f>
-        <v>43771</v>
+        <v>43772</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43786</v>
+        <v>43787</v>
       </c>
       <c r="G15" s="16">
         <v>15</v>
@@ -3403,20 +3401,20 @@
       <c r="BK15" s="51"/>
       <c r="BL15" s="51"/>
     </row>
-    <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="85" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="20"/>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43787</v>
+        <v>43788</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="G16" s="16">
         <v>15</v>
@@ -3482,20 +3480,20 @@
       <c r="BK16" s="51"/>
       <c r="BL16" s="51"/>
     </row>
-    <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45"/>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="20"/>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43813</v>
+        <v>43814</v>
       </c>
       <c r="G17" s="16">
         <v>10</v>
@@ -3561,20 +3559,20 @@
       <c r="BK17" s="51"/>
       <c r="BL17" s="51"/>
     </row>
-    <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="45"/>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="85" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="20"/>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43814</v>
+        <v>43815</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43834</v>
+        <v>43835</v>
       </c>
       <c r="G18" s="16">
         <v>20</v>
@@ -3640,20 +3638,20 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
     </row>
-    <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="45"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="85" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="20"/>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43835</v>
+        <v>43836</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43840</v>
+        <v>43841</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -3719,7 +3717,7 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
         <v>11</v>
       </c>
@@ -3792,7 +3790,7 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="45"/>
       <c r="B21" s="59" t="s">
         <v>15</v>
@@ -3801,11 +3799,11 @@
       <c r="D21" s="23"/>
       <c r="E21" s="3">
         <f ca="1">E9+15</f>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">E21+G21</f>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
@@ -3869,7 +3867,7 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="45"/>
       <c r="B22" s="59" t="s">
         <v>16</v>
@@ -3878,11 +3876,11 @@
       <c r="D22" s="23"/>
       <c r="E22" s="3">
         <f ca="1">F21+1</f>
-        <v>43771</v>
+        <v>43772</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F31" ca="1" si="10">E22+G22</f>
-        <v>43771</v>
+        <v>43772</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
@@ -3946,7 +3944,7 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="45"/>
       <c r="B23" s="59" t="s">
         <v>17</v>
@@ -3955,11 +3953,11 @@
       <c r="D23" s="23"/>
       <c r="E23" s="3">
         <f ca="1">E22+5</f>
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
@@ -4023,7 +4021,7 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
     </row>
-    <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="45"/>
       <c r="B24" s="59" t="s">
         <v>18</v>
@@ -4032,11 +4030,11 @@
       <c r="D24" s="23"/>
       <c r="E24" s="3">
         <f ca="1">F23+1</f>
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16">
@@ -4100,7 +4098,7 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
     </row>
-    <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="45"/>
       <c r="B25" s="59" t="s">
         <v>19</v>
@@ -4109,11 +4107,11 @@
       <c r="D25" s="23"/>
       <c r="E25" s="3">
         <f ca="1">E23</f>
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16">
@@ -4177,7 +4175,7 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="45" t="s">
         <v>11</v>
       </c>
@@ -4250,7 +4248,7 @@
       <c r="BK26" s="51"/>
       <c r="BL26" s="51"/>
     </row>
-    <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="45"/>
       <c r="B27" s="62" t="s">
         <v>15</v>
@@ -4328,7 +4326,7 @@
       <c r="BK27" s="51"/>
       <c r="BL27" s="51"/>
     </row>
-    <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="45"/>
       <c r="B28" s="62" t="s">
         <v>16</v>
@@ -4404,7 +4402,7 @@
       <c r="BK28" s="51"/>
       <c r="BL28" s="51"/>
     </row>
-    <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="45"/>
       <c r="B29" s="62" t="s">
         <v>17</v>
@@ -4480,7 +4478,7 @@
       <c r="BK29" s="51"/>
       <c r="BL29" s="51"/>
     </row>
-    <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="45"/>
       <c r="B30" s="62" t="s">
         <v>18</v>
@@ -4556,7 +4554,7 @@
       <c r="BK30" s="51"/>
       <c r="BL30" s="51"/>
     </row>
-    <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="45"/>
       <c r="B31" s="62" t="s">
         <v>19</v>
@@ -4632,7 +4630,7 @@
       <c r="BK31" s="51"/>
       <c r="BL31" s="51"/>
     </row>
-    <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="45" t="s">
         <v>12</v>
       </c>
@@ -4703,7 +4701,7 @@
       <c r="BK32" s="51"/>
       <c r="BL32" s="51"/>
     </row>
-    <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="42" t="s">
         <v>13</v>
       </c>
@@ -4776,14 +4774,14 @@
       <c r="BK33" s="67"/>
       <c r="BL33" s="67"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G34" s="68"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="9"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="35"/>
     </row>
   </sheetData>
@@ -4884,7 +4882,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -4952,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4960,86 +4958,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="87.21875" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="6"/>
+    <col min="1" max="1" width="87.1796875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:2" s="69" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="37"/>
     </row>
-    <row r="3" spans="1:2" s="70" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="70" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="71" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="72" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>44</v>
       </c>
@@ -5047,10 +5045,10 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/媛媛的日程.xlsx
+++ b/媛媛的日程.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -145,9 +145,6 @@
   <si>
     <t>分配
 到</t>
-  </si>
-  <si>
-    <t>姓名</t>
   </si>
   <si>
     <t>进度</t>
@@ -300,6 +297,38 @@
   </si>
   <si>
     <t>小学一年级学习计划表</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O拼读</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>P，Q拼读</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>R，S拼读</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>T，U拼读</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>V，W拼读</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1270,9 +1299,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1345,6 +1371,24 @@
     <xf numFmtId="180" fontId="26" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1352,22 +1396,7 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1519,28 +1548,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1633,22 +1640,44 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="11"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2066,15 +2095,15 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="45" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="44" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" style="44" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="47" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
@@ -2092,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -2113,339 +2142,339 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="90">
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <f ca="1">TODAY()</f>
-        <v>43755</v>
-      </c>
-      <c r="F3" s="90"/>
+        <v>43756</v>
+      </c>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="85">
         <f ca="1">I5</f>
         <v>43751</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="87">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f ca="1">P5</f>
         <v>43758</v>
       </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="87">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f ca="1">W5</f>
         <v>43765</v>
       </c>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="87">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f ca="1">AD5</f>
         <v>43772</v>
       </c>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="87">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f ca="1">AK5</f>
         <v>43779</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="87">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f ca="1">AR5</f>
         <v>43786</v>
       </c>
-      <c r="AS4" s="88"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="87">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f ca="1">AY5</f>
         <v>43793</v>
       </c>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="88"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="87">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f ca="1">BF5</f>
         <v>43800</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="I5" s="73">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="I5" s="72">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43751</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="73">
         <f ca="1">I5+1</f>
         <v>43752</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="73">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
         <v>43753</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43754</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43755</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43756</v>
       </c>
-      <c r="O5" s="75">
+      <c r="O5" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>43757</v>
       </c>
-      <c r="P5" s="73">
+      <c r="P5" s="72">
         <f ca="1">O5+1</f>
         <v>43758</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="73">
         <f ca="1">P5+1</f>
         <v>43759</v>
       </c>
-      <c r="R5" s="74">
+      <c r="R5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43760</v>
       </c>
-      <c r="S5" s="74">
+      <c r="S5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43761</v>
       </c>
-      <c r="T5" s="74">
+      <c r="T5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43762</v>
       </c>
-      <c r="U5" s="74">
+      <c r="U5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43763</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>43764</v>
       </c>
-      <c r="W5" s="73">
+      <c r="W5" s="72">
         <f ca="1">V5+1</f>
         <v>43765</v>
       </c>
-      <c r="X5" s="74">
+      <c r="X5" s="73">
         <f ca="1">W5+1</f>
         <v>43766</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="Y5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43767</v>
       </c>
-      <c r="Z5" s="74">
+      <c r="Z5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43768</v>
       </c>
-      <c r="AA5" s="74">
+      <c r="AA5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43769</v>
       </c>
-      <c r="AB5" s="74">
+      <c r="AB5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43770</v>
       </c>
-      <c r="AC5" s="75">
+      <c r="AC5" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>43771</v>
       </c>
-      <c r="AD5" s="73">
+      <c r="AD5" s="72">
         <f ca="1">AC5+1</f>
         <v>43772</v>
       </c>
-      <c r="AE5" s="74">
+      <c r="AE5" s="73">
         <f ca="1">AD5+1</f>
         <v>43773</v>
       </c>
-      <c r="AF5" s="74">
+      <c r="AF5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43774</v>
       </c>
-      <c r="AG5" s="74">
+      <c r="AG5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43775</v>
       </c>
-      <c r="AH5" s="74">
+      <c r="AH5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43776</v>
       </c>
-      <c r="AI5" s="74">
+      <c r="AI5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43777</v>
       </c>
-      <c r="AJ5" s="75">
+      <c r="AJ5" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>43778</v>
       </c>
-      <c r="AK5" s="73">
+      <c r="AK5" s="72">
         <f ca="1">AJ5+1</f>
         <v>43779</v>
       </c>
-      <c r="AL5" s="74">
+      <c r="AL5" s="73">
         <f ca="1">AK5+1</f>
         <v>43780</v>
       </c>
-      <c r="AM5" s="74">
+      <c r="AM5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43781</v>
       </c>
-      <c r="AN5" s="74">
+      <c r="AN5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43782</v>
       </c>
-      <c r="AO5" s="74">
+      <c r="AO5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43783</v>
       </c>
-      <c r="AP5" s="74">
+      <c r="AP5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43784</v>
       </c>
-      <c r="AQ5" s="75">
+      <c r="AQ5" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>43785</v>
       </c>
-      <c r="AR5" s="73">
+      <c r="AR5" s="72">
         <f ca="1">AQ5+1</f>
         <v>43786</v>
       </c>
-      <c r="AS5" s="74">
+      <c r="AS5" s="73">
         <f ca="1">AR5+1</f>
         <v>43787</v>
       </c>
-      <c r="AT5" s="74">
+      <c r="AT5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43788</v>
       </c>
-      <c r="AU5" s="74">
+      <c r="AU5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43789</v>
       </c>
-      <c r="AV5" s="74">
+      <c r="AV5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43790</v>
       </c>
-      <c r="AW5" s="74">
+      <c r="AW5" s="73">
         <f t="shared" ca="1" si="0"/>
         <v>43791</v>
       </c>
-      <c r="AX5" s="75">
+      <c r="AX5" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>43792</v>
       </c>
-      <c r="AY5" s="73">
+      <c r="AY5" s="72">
         <f ca="1">AX5+1</f>
         <v>43793</v>
       </c>
-      <c r="AZ5" s="74">
+      <c r="AZ5" s="73">
         <f ca="1">AY5+1</f>
         <v>43794</v>
       </c>
-      <c r="BA5" s="74">
+      <c r="BA5" s="73">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
         <v>43795</v>
       </c>
-      <c r="BB5" s="74">
+      <c r="BB5" s="73">
         <f t="shared" ca="1" si="1"/>
         <v>43796</v>
       </c>
-      <c r="BC5" s="74">
+      <c r="BC5" s="73">
         <f t="shared" ca="1" si="1"/>
         <v>43797</v>
       </c>
-      <c r="BD5" s="74">
+      <c r="BD5" s="73">
         <f t="shared" ca="1" si="1"/>
         <v>43798</v>
       </c>
-      <c r="BE5" s="75">
+      <c r="BE5" s="74">
         <f t="shared" ca="1" si="1"/>
         <v>43799</v>
       </c>
-      <c r="BF5" s="73">
+      <c r="BF5" s="72">
         <f ca="1">BE5+1</f>
         <v>43800</v>
       </c>
-      <c r="BG5" s="74">
+      <c r="BG5" s="73">
         <f ca="1">BF5+1</f>
         <v>43801</v>
       </c>
-      <c r="BH5" s="74">
+      <c r="BH5" s="73">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
         <v>43802</v>
       </c>
-      <c r="BI5" s="74">
+      <c r="BI5" s="73">
         <f t="shared" ca="1" si="2"/>
         <v>43803</v>
       </c>
-      <c r="BJ5" s="74">
+      <c r="BJ5" s="73">
         <f t="shared" ca="1" si="2"/>
         <v>43804</v>
       </c>
-      <c r="BK5" s="74">
+      <c r="BK5" s="73">
         <f t="shared" ca="1" si="2"/>
         <v>43805</v>
       </c>
-      <c r="BL5" s="75">
+      <c r="BL5" s="74">
         <f t="shared" ca="1" si="2"/>
         <v>43806</v>
       </c>
@@ -2461,19 +2490,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
@@ -2772,12 +2801,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
         <f t="shared" ref="H8:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2844,21 +2873,19 @@
       <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>24</v>
-      </c>
+      <c r="B9" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="54"/>
       <c r="D9" s="17">
         <v>0</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="F9" s="1">
-        <f ca="1">E9+G9</f>
+        <f ca="1">E9+G9-1</f>
         <v>43769</v>
       </c>
       <c r="G9" s="16">
@@ -2866,7 +2893,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
@@ -2929,8 +2956,8 @@
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>58</v>
+      <c r="B10" s="83" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="17">
@@ -2941,15 +2968,15 @@
         <v>43770</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43780</v>
+        <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10-1</f>
+        <v>43779</v>
       </c>
       <c r="G10" s="16">
         <v>10</v>
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
@@ -3010,8 +3037,8 @@
     </row>
     <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
-      <c r="B11" s="91" t="s">
-        <v>59</v>
+      <c r="B11" s="83" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="17">
@@ -3019,18 +3046,18 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43796</v>
+        <v>43794</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
@@ -3094,12 +3121,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="str">
         <f t="shared" si="5"/>
@@ -3164,8 +3191,8 @@
     </row>
     <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
-      <c r="B13" s="92" t="s">
-        <v>51</v>
+      <c r="B13" s="84" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="20">
@@ -3173,10 +3200,10 @@
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="F13" s="1">
-        <f ca="1">E13+G13</f>
+        <f ca="1">E13+G13-1</f>
         <v>43764</v>
       </c>
       <c r="G13" s="16">
@@ -3184,7 +3211,7 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -3245,8 +3272,8 @@
     </row>
     <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
-      <c r="B14" s="92" t="s">
-        <v>52</v>
+      <c r="B14" s="84" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="20">
@@ -3257,15 +3284,15 @@
         <v>43765</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14</f>
-        <v>43770</v>
+        <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14-1</f>
+        <v>43769</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
@@ -3326,25 +3353,25 @@
     </row>
     <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
-      <c r="B15" s="92" t="s">
-        <v>53</v>
+      <c r="B15" s="84" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="20"/>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E19" ca="1" si="9">F14+1</f>
-        <v>43771</v>
+        <v>43770</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43786</v>
+        <v>43784</v>
       </c>
       <c r="G15" s="16">
         <v>15</v>
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -3405,25 +3432,25 @@
     </row>
     <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="92" t="s">
-        <v>54</v>
+      <c r="B16" s="84" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="20"/>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43787</v>
+        <v>43785</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43802</v>
+        <v>43799</v>
       </c>
       <c r="G16" s="16">
         <v>15</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -3484,25 +3511,25 @@
     </row>
     <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
-      <c r="B17" s="92" t="s">
-        <v>55</v>
+      <c r="B17" s="84" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="20"/>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43803</v>
+        <v>43800</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43813</v>
+        <v>43809</v>
       </c>
       <c r="G17" s="16">
         <v>10</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
@@ -3563,25 +3590,25 @@
     </row>
     <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
-      <c r="B18" s="92" t="s">
-        <v>56</v>
+      <c r="B18" s="84" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="20"/>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43814</v>
+        <v>43810</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43834</v>
+        <v>43829</v>
       </c>
       <c r="G18" s="16">
         <v>20</v>
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
@@ -3642,25 +3669,25 @@
     </row>
     <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
-      <c r="B19" s="92" t="s">
-        <v>57</v>
+      <c r="B19" s="84" t="s">
+        <v>56</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="20"/>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43835</v>
+        <v>43830</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43840</v>
+        <v>43834</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
@@ -3724,12 +3751,12 @@
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="80"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16" t="str">
         <f t="shared" si="5"/>
@@ -3794,23 +3821,24 @@
     </row>
     <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
-      <c r="B21" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="60"/>
+      <c r="B21" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="59"/>
       <c r="D21" s="23"/>
       <c r="E21" s="3">
-        <f ca="1">E9+15</f>
-        <v>43770</v>
+        <v>43759</v>
       </c>
       <c r="F21" s="1">
-        <f ca="1">E21+G21</f>
-        <v>43770</v>
-      </c>
-      <c r="G21" s="16"/>
+        <f>E21+G21-1</f>
+        <v>43760</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
       <c r="H21" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -3871,23 +3899,25 @@
     </row>
     <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
-      <c r="B22" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="60"/>
+      <c r="B22" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="59"/>
       <c r="D22" s="23"/>
       <c r="E22" s="3">
-        <f ca="1">F21+1</f>
-        <v>43771</v>
+        <f>F21+1</f>
+        <v>43761</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F31" ca="1" si="10">E22+G22</f>
-        <v>43771</v>
-      </c>
-      <c r="G22" s="16"/>
+        <f t="shared" ref="F22:F25" si="10">E22+G22-1</f>
+        <v>43762</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2</v>
+      </c>
       <c r="H22" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -3948,23 +3978,24 @@
     </row>
     <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="60"/>
+      <c r="B23" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="59"/>
       <c r="D23" s="23"/>
       <c r="E23" s="3">
-        <f ca="1">E22+5</f>
-        <v>43776</v>
+        <v>43763</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>43776</v>
-      </c>
-      <c r="G23" s="16"/>
+        <f t="shared" si="10"/>
+        <v>43766</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4</v>
+      </c>
       <c r="H23" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
@@ -4025,23 +4056,25 @@
     </row>
     <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="60"/>
+      <c r="B24" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="59"/>
       <c r="D24" s="23"/>
       <c r="E24" s="3">
-        <f ca="1">F23+1</f>
-        <v>43777</v>
+        <f>F23+1</f>
+        <v>43767</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>43777</v>
-      </c>
-      <c r="G24" s="16"/>
+        <f t="shared" si="10"/>
+        <v>43768</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
       <c r="H24" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
@@ -4102,23 +4135,24 @@
     </row>
     <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="60"/>
+      <c r="B25" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="59"/>
       <c r="D25" s="23"/>
       <c r="E25" s="3">
-        <f ca="1">E23</f>
-        <v>43776</v>
+        <v>43769</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>43776</v>
-      </c>
-      <c r="G25" s="16"/>
+        <f t="shared" si="10"/>
+        <v>43770</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2</v>
+      </c>
       <c r="H25" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
@@ -4182,12 +4216,12 @@
         <v>11</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="61"/>
+        <v>48</v>
+      </c>
+      <c r="C26" s="60"/>
       <c r="D26" s="25"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4252,16 +4286,16 @@
     </row>
     <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="26"/>
       <c r="E27" s="4">
         <v>43756</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F22:F31" si="11">E27+G27</f>
         <v>43757</v>
       </c>
       <c r="G27" s="16">
@@ -4330,16 +4364,16 @@
     </row>
     <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="26"/>
       <c r="E28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G28" s="16"/>
@@ -4406,16 +4440,16 @@
     </row>
     <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="26"/>
       <c r="E29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" s="16"/>
@@ -4482,16 +4516,16 @@
     </row>
     <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="26"/>
       <c r="E30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G30" s="16"/>
@@ -4558,16 +4592,16 @@
     </row>
     <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="26"/>
       <c r="E31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="16"/>
@@ -4636,11 +4670,11 @@
       <c r="A32" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4719,65 +4753,65 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="67"/>
-      <c r="U33" s="67"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="67"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="67"/>
-      <c r="AQ33" s="67"/>
-      <c r="AR33" s="67"/>
-      <c r="AS33" s="67"/>
-      <c r="AT33" s="67"/>
-      <c r="AU33" s="67"/>
-      <c r="AV33" s="67"/>
-      <c r="AW33" s="67"/>
-      <c r="AX33" s="67"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="67"/>
-      <c r="BA33" s="67"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="67"/>
-      <c r="BD33" s="67"/>
-      <c r="BE33" s="67"/>
-      <c r="BF33" s="67"/>
-      <c r="BG33" s="67"/>
-      <c r="BH33" s="67"/>
-      <c r="BI33" s="67"/>
-      <c r="BJ33" s="67"/>
-      <c r="BK33" s="67"/>
-      <c r="BL33" s="67"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
+      <c r="AW33" s="66"/>
+      <c r="AX33" s="66"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="66"/>
+      <c r="BA33" s="66"/>
+      <c r="BB33" s="66"/>
+      <c r="BC33" s="66"/>
+      <c r="BD33" s="66"/>
+      <c r="BE33" s="66"/>
+      <c r="BF33" s="66"/>
+      <c r="BG33" s="66"/>
+      <c r="BH33" s="66"/>
+      <c r="BI33" s="66"/>
+      <c r="BJ33" s="66"/>
+      <c r="BK33" s="66"/>
+      <c r="BL33" s="66"/>
     </row>
     <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="68"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="9"/>
@@ -4788,6 +4822,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4795,11 +4834,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D19:D33 D7:D16">
@@ -4883,7 +4917,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4">
       <formula1>1</formula1>
     </dataValidation>
@@ -4894,9 +4928,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="E23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4967,81 +4998,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="37"/>
     </row>
-    <row r="3" spans="1:2" s="70" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="69" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="36" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
-        <v>35</v>
+      <c r="A7" s="70" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A8" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
-        <v>38</v>
+      <c r="A10" s="71" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A11" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>41</v>
+      <c r="A13" s="71" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A14" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
